--- a/bdd.xlsx
+++ b/bdd.xlsx
@@ -1,22 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivi1\Desktop\Ensai 3A\Meta_Analyse\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50C715E-CC89-43F3-AE55-2441FE98143C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="28380" windowHeight="12675"/>
+    <workbookView xWindow="345" yWindow="4290" windowWidth="10320" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>s[]</t>
   </si>
@@ -58,12 +73,42 @@
   </si>
   <si>
     <t>ae en %</t>
+  </si>
+  <si>
+    <t>nref[]</t>
+  </si>
+  <si>
+    <t>diff_ae[]</t>
+  </si>
+  <si>
+    <t>diffae = prop ae dans trt - prop ae dans ref</t>
+  </si>
+  <si>
+    <t>Deberdt</t>
+  </si>
+  <si>
+    <t>Gureje</t>
+  </si>
+  <si>
+    <t>Kane</t>
+  </si>
+  <si>
+    <t>Kinon</t>
+  </si>
+  <si>
+    <t>Mcquade</t>
+  </si>
+  <si>
+    <t>Stroup</t>
+  </si>
+  <si>
+    <t>Tran</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -104,6 +149,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -152,7 +200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,9 +233,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,6 +285,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -395,17 +477,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -811,6 +895,12 @@
       <c r="C21" t="s">
         <v>9</v>
       </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22">
@@ -819,6 +909,12 @@
       <c r="C22" t="s">
         <v>10</v>
       </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23">
@@ -827,6 +923,12 @@
       <c r="C23" t="s">
         <v>11</v>
       </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24">
@@ -834,11 +936,39 @@
       </c>
       <c r="C24" t="s">
         <v>12</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -847,25 +977,348 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A40F965-72BB-4C8F-908D-E8528A9415C7}">
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="E18:F24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>68</v>
+      </c>
+      <c r="C2">
+        <v>65</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>-1.81</v>
+      </c>
+      <c r="G2">
+        <f>15.38-2.94</f>
+        <v>12.440000000000001</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>-0.4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>281</v>
+      </c>
+      <c r="C4">
+        <v>285</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>-3.1</v>
+      </c>
+      <c r="F4">
+        <f>(4.06-2.26)/3.92</f>
+        <v>0.45918367346938771</v>
+      </c>
+      <c r="G4">
+        <f>50.2-42.7</f>
+        <v>7.5</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>171</v>
+      </c>
+      <c r="C5">
+        <v>175</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>-0.64</v>
+      </c>
+      <c r="G5">
+        <f>32+6.3-15.8</f>
+        <v>22.499999999999996</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>161</v>
+      </c>
+      <c r="C6">
+        <v>156</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>-5.6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>-5.44</v>
+      </c>
+      <c r="G7">
+        <f>3-10</f>
+        <v>-7</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>-3.31</v>
+      </c>
+      <c r="G8">
+        <f>6-10</f>
+        <v>-4</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>-4.45</v>
+      </c>
+      <c r="G9">
+        <f>6-10</f>
+        <v>-4</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>167</v>
+      </c>
+      <c r="C10">
+        <v>165</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>-1.8</v>
+      </c>
+      <c r="G10">
+        <f>10.2-9.9</f>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/bdd.xlsx
+++ b/bdd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivi1\Desktop\Ensai 3A\Meta_Analyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50C715E-CC89-43F3-AE55-2441FE98143C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3496C501-6A9A-4940-8E1E-4FF330918ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="4290" windowWidth="10320" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
   <si>
     <t>s[]</t>
   </si>
@@ -103,6 +103,24 @@
   </si>
   <si>
     <t>Tran</t>
+  </si>
+  <si>
+    <t>5.47</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>ae_trt[]</t>
+  </si>
+  <si>
+    <t>ae_trt_ref[]</t>
+  </si>
+  <si>
+    <t>r_ae_trt[]</t>
+  </si>
+  <si>
+    <t>r_ae_trt_ref[]</t>
   </si>
 </sst>
 </file>
@@ -138,8 +156,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,18 +1000,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A40F965-72BB-4C8F-908D-E8528A9415C7}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="E18:F24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1009,13 +1032,25 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1031,15 +1066,32 @@
       <c r="E2">
         <v>-1.81</v>
       </c>
+      <c r="F2" s="2">
+        <v>6.07</v>
+      </c>
       <c r="G2">
+        <v>2.94</v>
+      </c>
+      <c r="H2">
+        <v>15.38</v>
+      </c>
+      <c r="I2">
         <f>15.38-2.94</f>
         <v>12.440000000000001</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <f>ROUND(G2*B2/100,0)</f>
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <f>ROUND(H2*C2/100,0)</f>
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1055,14 +1107,29 @@
       <c r="E3">
         <v>-0.4</v>
       </c>
+      <c r="F3" s="2">
+        <v>3.8</v>
+      </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1078,19 +1145,32 @@
       <c r="E4">
         <v>-3.1</v>
       </c>
-      <c r="F4">
-        <f>(4.06-2.26)/3.92</f>
-        <v>0.45918367346938771</v>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G4">
+        <v>42.7</v>
+      </c>
+      <c r="H4">
+        <v>50.2</v>
+      </c>
+      <c r="I4">
         <f>50.2-42.7</f>
         <v>7.5</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f>ROUND(G4*B4/100,0)</f>
+        <v>120</v>
+      </c>
+      <c r="K4">
+        <f>ROUND(H4*C4/100,0)</f>
+        <v>143</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1106,15 +1186,34 @@
       <c r="E5">
         <v>-0.64</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G5">
+        <f>2.9+12.9</f>
+        <v>15.8</v>
+      </c>
+      <c r="H5">
+        <f>32+6.3</f>
+        <v>38.299999999999997</v>
+      </c>
+      <c r="I5">
         <f>32+6.3-15.8</f>
         <v>22.499999999999996</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f>ROUND(G5*B5/100,0)</f>
+        <v>27</v>
+      </c>
+      <c r="K5">
+        <f>ROUND(H5*C5/100,0)</f>
+        <v>67</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1130,14 +1229,29 @@
       <c r="E6">
         <v>-5.6</v>
       </c>
+      <c r="F6" s="1">
+        <v>16.7</v>
+      </c>
       <c r="G6" t="s">
         <v>7</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1153,15 +1267,33 @@
       <c r="E7">
         <v>-5.44</v>
       </c>
+      <c r="F7" s="2">
+        <f>E7/2.5/SQRT(1/B7+1/C7)</f>
+        <v>-9.3044762026352359</v>
+      </c>
       <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
         <f>3-10</f>
         <v>-7</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f>ROUND(G7*B7/100,0)</f>
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <f>ROUND(H7*C7/100,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1177,15 +1309,33 @@
       <c r="E8">
         <v>-3.31</v>
       </c>
+      <c r="F8" s="2">
+        <f t="shared" ref="F8:F9" si="0">E8/2.5/SQRT(1/B8+1/C8)</f>
+        <v>-5.661363277706366</v>
+      </c>
       <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
         <f>6-10</f>
         <v>-4</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f>ROUND(G8*B8/100,0)</f>
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <f>ROUND(H8*C8/100,0)</f>
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1201,15 +1351,33 @@
       <c r="E9">
         <v>-4.45</v>
       </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>-7.7932358282888297</v>
+      </c>
       <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
         <f>6-10</f>
         <v>-4</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f>ROUND(G9*B9/100,0)</f>
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <f>ROUND(H9*C9/100,0)</f>
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1225,15 +1393,33 @@
       <c r="E10">
         <v>-1.8</v>
       </c>
+      <c r="F10" s="2">
+        <f>-E10/2.18*SQRT(B10+C10)</f>
+        <v>15.044752699504347</v>
+      </c>
       <c r="G10">
+        <v>9.9</v>
+      </c>
+      <c r="H10">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I10">
         <f>10.2-9.9</f>
         <v>0.29999999999999893</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f>ROUND(G10*B10/100,0)</f>
+        <v>17</v>
+      </c>
+      <c r="K10">
+        <f>ROUND(H10*C10/100,0)</f>
+        <v>17</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
